--- a/tests/test_comment_no_column.xlsx
+++ b/tests/test_comment_no_column.xlsx
@@ -16,25 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
-    <t>user_name</t>
-  </si>
-  <si>
     <t>article_url</t>
   </si>
   <si>
-    <t>publication_date</t>
-  </si>
-  <si>
-    <t>aUko</t>
-  </si>
-  <si>
-    <t>eWnp</t>
-  </si>
-  <si>
-    <t>QnSl</t>
-  </si>
-  <si>
-    <t>LpsU</t>
+    <t>content</t>
+  </si>
+  <si>
+    <t>comment_date</t>
   </si>
   <si>
     <t>https://naver.com/123</t>
@@ -47,6 +35,18 @@
   </si>
   <si>
     <t>https://naver.com/126</t>
+  </si>
+  <si>
+    <t>댓글내용1</t>
+  </si>
+  <si>
+    <t>댓글내용2</t>
+  </si>
+  <si>
+    <t>댓글내용3</t>
+  </si>
+  <si>
+    <t>댓글내용4</t>
   </si>
   <si>
     <t>2024-05-27 18:15:27</t>
@@ -450,10 +450,10 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
@@ -464,10 +464,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
@@ -478,10 +478,10 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
@@ -492,10 +492,10 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
@@ -504,10 +504,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
